--- a/data/trans_camb/P22_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.03730419947828301</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2968422324455038</v>
+        <v>0.2968422324455045</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.975396343745437</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.945555820641737</v>
+        <v>-1.988833077720375</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.509563032332109</v>
+        <v>-2.426671896635857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.531683802434756</v>
+        <v>-2.455881514281861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.769296259199866</v>
+        <v>-5.855779645421712</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.404255778945598</v>
+        <v>-5.146876995860513</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.907947685604721</v>
+        <v>-6.965296180002094</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.087482797697764</v>
+        <v>-2.867305364180361</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.974965867676615</v>
+        <v>-3.068416431931429</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.806348153374822</v>
+        <v>-3.846857574833522</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.791941732575773</v>
+        <v>2.701288530812867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.303301707108019</v>
+        <v>2.377565140135865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.381034075637478</v>
+        <v>4.573333450186031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.5837874944318607</v>
+        <v>-0.622628218216143</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01144002262136718</v>
+        <v>0.08697993913681396</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.855710532535571</v>
+        <v>-1.817564716761095</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4818882888612566</v>
+        <v>0.785962655134069</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6723524700120855</v>
+        <v>0.5399688528181046</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6495603852040306</v>
+        <v>0.5060684039473305</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.01113635792468164</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.08861579644938214</v>
+        <v>0.08861579644938235</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.543336953918682</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4814674707778241</v>
+        <v>-0.4758513314870456</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5588138898785823</v>
+        <v>-0.5718548073153665</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6649949245410884</v>
+        <v>-0.617466573828639</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.792248198024999</v>
+        <v>-0.8081955966351345</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7509946183721974</v>
+        <v>-0.7528738831216331</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5765348858304982</v>
+        <v>-0.5690696262591591</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5753190994198972</v>
+        <v>-0.5789505843300983</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7448605448710078</v>
+        <v>-0.7794388225472425</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.226420283641035</v>
+        <v>1.25632475128408</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.07355183795861</v>
+        <v>1.078365080920415</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.837071423590061</v>
+        <v>2.015295949222363</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08888991337338673</v>
+        <v>-0.1242647544999779</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04835246603681247</v>
+        <v>0.1001502288395489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3082384180085653</v>
+        <v>-0.03784326527397263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1454974219056018</v>
+        <v>0.2555016455158449</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2002793805223452</v>
+        <v>0.1607081532293089</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2761011235228192</v>
+        <v>0.1723756826881251</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.568578600560528</v>
+        <v>-1.609773469109466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.382713237559078</v>
+        <v>-2.183926368236652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.480571821157675</v>
+        <v>-2.388207806606775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.615489590608546</v>
+        <v>-3.467386448492324</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.637256160364565</v>
+        <v>-3.394631358333716</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.279701291780837</v>
+        <v>-5.052817053957806</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.004719431036863</v>
+        <v>-1.893932828067227</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.062133261310451</v>
+        <v>-2.242522264140248</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.230834222800576</v>
+        <v>-3.058627702374713</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.504726915370294</v>
+        <v>3.029019633611857</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.812871131196856</v>
+        <v>1.830122624532625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.712360309564601</v>
+        <v>2.972131369622486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.154120703200352</v>
+        <v>0.9375748061036825</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.094688702174152</v>
+        <v>1.239677996809252</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.871164144977751</v>
+        <v>-0.7158953722012064</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.232274602937773</v>
+        <v>1.261530123872481</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.061430273500326</v>
+        <v>0.8453673251790046</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3614798316895241</v>
+        <v>0.2862884687156769</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2438534681374861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.6323499005924699</v>
+        <v>-0.63234990059247</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.07884854572336066</v>
@@ -983,7 +983,7 @@
         <v>-0.151108264342284</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3790438573988223</v>
+        <v>-0.3790438573988222</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.366697762397172</v>
+        <v>-0.343996253488364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5138437630571613</v>
+        <v>-0.4826318676590382</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6062280574284484</v>
+        <v>-0.6020618844056194</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5931715384461719</v>
+        <v>-0.5967057404784535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.586317824352539</v>
+        <v>-0.5820426473283378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8501907736274789</v>
+        <v>-0.8570984293214513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3877344377980316</v>
+        <v>-0.3940389169226493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4192904577780416</v>
+        <v>-0.4608012922623845</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6594258188545301</v>
+        <v>-0.6604113733576173</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9217234800992228</v>
+        <v>1.190815995797357</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6691972300011051</v>
+        <v>0.6944260565410917</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.065104445289414</v>
+        <v>1.161411463020778</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.391450146299889</v>
+        <v>0.2880842042503703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3267661362734863</v>
+        <v>0.3721901591584156</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1541808956957232</v>
+        <v>-0.1527095035600976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3822673039243781</v>
+        <v>0.3893175524510342</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3213431272482865</v>
+        <v>0.256839051066906</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1175014169272405</v>
+        <v>0.1058327876589243</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.685039761104224</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.5464753752469548</v>
+        <v>-0.5464753752469562</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5849121748796976</v>
+        <v>-0.4884467824268237</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2524076028709972</v>
+        <v>-0.1528284730937244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.476571601537441</v>
+        <v>-2.389423407249887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.655628180811023</v>
+        <v>-2.558321520303441</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.226892885952453</v>
+        <v>-1.484983618600174</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.586898995142562</v>
+        <v>-2.807820437212653</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.112152235129744</v>
+        <v>-0.9565536448442179</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02370275054042038</v>
+        <v>0.1302478680663599</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.102276762892894</v>
+        <v>-1.976167615698369</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.383294044933994</v>
+        <v>4.440370639901426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.944784337453554</v>
+        <v>5.078537785032351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.954934707668645</v>
+        <v>1.939842564531828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.720027628954087</v>
+        <v>1.756891587410289</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.333973066825346</v>
+        <v>3.014182379601155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.307406139745588</v>
+        <v>1.038556623820269</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.165998835020093</v>
+        <v>2.193894032604802</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.452823644414387</v>
+        <v>3.410967893607047</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9916440907541488</v>
+        <v>0.9429748143186472</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.4429538201987895</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1436543876873143</v>
+        <v>-0.1436543876873146</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.129481041159672</v>
+        <v>-0.1293581999909168</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.007231575577636753</v>
+        <v>-0.06728607907999226</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5210209620258764</v>
+        <v>-0.5267859442206198</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5494474782516582</v>
+        <v>-0.5062098787357261</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2714834999066148</v>
+        <v>-0.3016666968535178</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4982270450618314</v>
+        <v>-0.5493680638760773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2380356852768446</v>
+        <v>-0.2045255857380855</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.002163501640110415</v>
+        <v>0.02802662910522428</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4443839934608687</v>
+        <v>-0.4388088558194156</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.569097460165187</v>
+        <v>1.605692657478679</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.848095717006968</v>
+        <v>1.880749204929745</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8138851232495564</v>
+        <v>0.7649786113034515</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6171872563006916</v>
+        <v>0.6247700822623404</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.243803167125209</v>
+        <v>0.9863874424401069</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4869552975029078</v>
+        <v>0.3785474907311505</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7092212443802094</v>
+        <v>0.7437756982409369</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.105951614520694</v>
+        <v>1.119949063961557</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3325430080895312</v>
+        <v>0.3353827727036249</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.621909833346304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.895514851017647</v>
+        <v>-2.895514851017648</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.374957113526996</v>
@@ -1297,7 +1297,7 @@
         <v>-0.3640423264163466</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.197581935643633</v>
+        <v>-1.197581935643632</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1542300863557222</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.564889835788677</v>
+        <v>-4.889694492523987</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.778383862702052</v>
+        <v>-4.774961952815595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.05706549844054</v>
+        <v>-5.915898162872699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.307876411562981</v>
+        <v>-1.306589393556187</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.704594256778518</v>
+        <v>-3.071336403041376</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.395675727805825</v>
+        <v>-3.577682602309874</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.128407856365349</v>
+        <v>-2.354812651870817</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.900928484666721</v>
+        <v>-2.763549939837408</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.876214198538275</v>
+        <v>-3.967429460568825</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.512051016376502</v>
+        <v>1.682180048281002</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.165291257703669</v>
+        <v>1.269166287457381</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.404377987526864</v>
+        <v>-0.4238147690340129</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.024328713983671</v>
+        <v>4.288745417673018</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.792471014729567</v>
+        <v>1.880262685748834</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6697437574719394</v>
+        <v>0.6132340065322734</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.231891547256373</v>
+        <v>1.713829010417691</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8220117467085724</v>
+        <v>0.9988739789055447</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.4525237607254785</v>
+        <v>-0.4366646397199929</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2373975541281911</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4238140304971408</v>
+        <v>-0.4238140304971409</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.320878090909066</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5568419242872327</v>
+        <v>-0.5816071859348023</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5421472414736408</v>
+        <v>-0.5565257885480482</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6810868066240645</v>
+        <v>-0.6723819047944606</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2607217432757905</v>
+        <v>-0.2553215087035771</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5039110714089672</v>
+        <v>-0.509483129129174</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5865726877088043</v>
+        <v>-0.6012170647884991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3325773595896065</v>
+        <v>-0.3690450979118514</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4304114094075639</v>
+        <v>-0.4192682009165136</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5610387498957661</v>
+        <v>-0.572399190783824</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3095775837450799</v>
+        <v>0.3279976908798299</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.249161525409248</v>
+        <v>0.2418889793923817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04788684663278171</v>
+        <v>-0.07168467086853582</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.267300867584979</v>
+        <v>1.416580667763433</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5809822110037632</v>
+        <v>0.6041503628526798</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2422120580163148</v>
+        <v>0.231156560569048</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5018305717090147</v>
+        <v>0.3861370705615024</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1864172930963532</v>
+        <v>0.2347565674127878</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.08975426285223526</v>
+        <v>-0.07713985196371381</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-2.870418072462693</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.798186953446406</v>
+        <v>-2.798186953446405</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.308601290264153</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1919160195635981</v>
+        <v>-0.5041325356288787</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2590390923926769</v>
+        <v>-0.1221159377924017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.410320010958953</v>
+        <v>-2.17610435610534</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.914692295530094</v>
+        <v>-5.892881637943582</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.037910625326257</v>
+        <v>-6.045822585922635</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.655241418623298</v>
+        <v>-5.645584321432601</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.438469130811685</v>
+        <v>-2.353498585871581</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.994283331330969</v>
+        <v>-2.153475937529485</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.301962101502159</v>
+        <v>-3.502061366862747</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.36959928047738</v>
+        <v>5.546373150870137</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.866266660756867</v>
+        <v>5.54175914193868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.064997248114005</v>
+        <v>1.988865711820792</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07280521161538045</v>
+        <v>0.1237929300896613</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3335118057138856</v>
+        <v>-0.001150154661831783</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.2742714114544003</v>
+        <v>-0.3999051775472102</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.018867243950086</v>
+        <v>2.024321833233685</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.007012531384777</v>
+        <v>1.967928233922426</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1427429967677638</v>
+        <v>0.03070633173918711</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.4806042722957248</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4685103600099284</v>
+        <v>-0.4685103600099283</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.06744540707897462</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05871848660885248</v>
+        <v>-0.1584326384514155</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05701606627832635</v>
+        <v>-0.1201749740906693</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5366981293923128</v>
+        <v>-0.4878212795053273</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7656358097706043</v>
+        <v>-0.748477836377624</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7467609186677672</v>
+        <v>-0.7524583870628121</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6745708839700721</v>
+        <v>-0.6820468107952689</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4330234667568424</v>
+        <v>-0.4260508887047325</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3583737034556586</v>
+        <v>-0.3744030489537866</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5563549087701252</v>
+        <v>-0.5659787133198081</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.801812617630755</v>
+        <v>2.870103735752028</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.834568666266891</v>
+        <v>2.932430925034321</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.06703846030404</v>
+        <v>0.9874675630330549</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.09689174168160157</v>
+        <v>0.06914147996652167</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.002062835372701996</v>
+        <v>0.04891313299717453</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06411886302694905</v>
+        <v>-0.05851583636347241</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5482393773871378</v>
+        <v>0.5611688474348039</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5725749715214538</v>
+        <v>0.5593090692651141</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.04551594654555484</v>
+        <v>0.02955244011574617</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.1324465462877775</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2078505445418453</v>
+        <v>0.2078505445418447</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.2296167293398502</v>
@@ -1734,7 +1734,7 @@
         <v>-0.07160745171616439</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.6548485924251162</v>
+        <v>0.6548485924251168</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.342405820640643</v>
+        <v>-1.652631985651895</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.900283552955308</v>
+        <v>-3.001160180169339</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.68453832089679</v>
+        <v>-1.952750547712635</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.586884810509951</v>
+        <v>-4.191231671841765</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.889600062294397</v>
+        <v>-3.419980167722123</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.636508946918237</v>
+        <v>-2.704083029678221</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.282712241072364</v>
+        <v>-2.23484666010286</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.092586804776688</v>
+        <v>-2.153390321007457</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.400599701385687</v>
+        <v>-1.416498758777576</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.654563550682057</v>
+        <v>5.793254944382878</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.031034638616795</v>
+        <v>3.286155765652273</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.686938548900156</v>
+        <v>3.667586239658469</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.2452444590616248</v>
+        <v>0.4788348705689927</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.66195190695625</v>
+        <v>2.546176134856056</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.242561377883926</v>
+        <v>2.28130715577624</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.096782999068516</v>
+        <v>2.064697574585797</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.071578350220221</v>
+        <v>2.008647656109042</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.288757084502934</v>
+        <v>2.191674316717378</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.0004972931733037718</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3007433256643665</v>
+        <v>0.3007433256643667</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.5229590443144352</v>
@@ -1830,7 +1830,7 @@
         <v>-0.03441402984789798</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05400650333473445</v>
+        <v>0.05400650333473427</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.06008805824984035</v>
@@ -1839,7 +1839,7 @@
         <v>-0.01873884686979892</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1713663480861948</v>
+        <v>0.171366348086195</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.332956244028037</v>
+        <v>-0.3314172913896281</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.572008175547589</v>
+        <v>-0.5622044943871455</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3542875289435181</v>
+        <v>-0.3556462303191112</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8382122290358169</v>
+        <v>-0.8322858807797548</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5787851282683464</v>
+        <v>-0.6508127092799205</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4535134442740751</v>
+        <v>-0.4691108826782323</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4980711008539962</v>
+        <v>-0.4670817112317742</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4420318012636524</v>
+        <v>-0.4421082227338707</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2820260675660334</v>
+        <v>-0.2849851944957367</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.499793961975409</v>
+        <v>2.309579431662155</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.435586487732847</v>
+        <v>1.377386367756772</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.61762135480445</v>
+        <v>1.505623582164655</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3657482787478276</v>
+        <v>0.2705328209653685</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.078387848890183</v>
+        <v>0.9782758629128497</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9310588901403676</v>
+        <v>0.9122781731061534</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7606495049653644</v>
+        <v>0.7280550882718475</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7359925833940026</v>
+        <v>0.7662411885189997</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.7963488201123423</v>
+        <v>0.8077317019944834</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-0.5904799831476121</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.9480735866277383</v>
+        <v>0.948073586627738</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.356295858583988</v>
+        <v>-4.325125049974464</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.838068707213545</v>
+        <v>-3.951941215392653</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.93518351342694</v>
+        <v>-2.968552035795255</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.8233899846670125</v>
+        <v>-0.7878063448255352</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.76865764014482</v>
+        <v>-2.455901695348626</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.057071579075508</v>
+        <v>-0.8594804541968765</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.436147070206236</v>
+        <v>-1.398701969507946</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.369495367423455</v>
+        <v>-2.32186618913779</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.5568831300753243</v>
+        <v>-0.8784474652389104</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.986619041825224</v>
+        <v>1.657673115264221</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.243085686013301</v>
+        <v>2.122113983780457</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.335107595609099</v>
+        <v>3.525208566534098</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.625393315235519</v>
+        <v>3.904197526081077</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6184916937616106</v>
+        <v>0.635817729520639</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.577312018103864</v>
+        <v>2.725315517239745</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.227067411009882</v>
+        <v>2.322629242509175</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.689325193148835</v>
+        <v>0.7984883665227949</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.569816018107112</v>
+        <v>2.368098481759995</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.5329660671692253</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7657360197960593</v>
+        <v>0.7657360197960591</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2269212262451947</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2983893991250248</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4790934763481017</v>
+        <v>0.4790934763481015</v>
       </c>
     </row>
     <row r="44">
@@ -2064,29 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8506071078427253</v>
+        <v>-0.8626432040167714</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7601263318882084</v>
+        <v>-0.7819735818672483</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5486801225728354</v>
+        <v>-0.5606216582814111</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.545801708872984</v>
-      </c>
-      <c r="G44" s="6" t="inlineStr"/>
+        <v>-0.4988226099831247</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4669722292377815</v>
+        <v>-0.4296075692360233</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5246746560445382</v>
+        <v>-0.5315935744001187</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7588573342301346</v>
+        <v>-0.7203165627967785</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.199237316149339</v>
+        <v>-0.3295895506716732</v>
       </c>
     </row>
     <row r="45">
@@ -2097,29 +2099,29 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.16433539094834</v>
+        <v>2.089266838007432</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.762461652720994</v>
+        <v>1.656440487962865</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.336619838383978</v>
+        <v>2.617185410713259</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>8.267393627930154</v>
+        <v>8.300486144721862</v>
       </c>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="n">
-        <v>6.074827656955067</v>
+        <v>6.399585819944457</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.796208142660465</v>
+        <v>2.175406280971467</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7121885480804648</v>
+        <v>0.870035997954321</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.433992204941184</v>
+        <v>2.252080926429167</v>
       </c>
     </row>
     <row r="46">
@@ -2140,7 +2142,7 @@
         <v>0.6138772492553318</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.3288751037306754</v>
+        <v>-0.3288751037306747</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.8838016700693729</v>
@@ -2169,31 +2171,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.4134173405686532</v>
+        <v>-0.3856039969206071</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5186729603706699</v>
+        <v>-0.4658612582395101</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.327139226209879</v>
+        <v>-1.278543784639226</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.791061033699133</v>
+        <v>-1.922125368545929</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.816635002899957</v>
+        <v>-1.862382141116954</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.371864132110812</v>
+        <v>-2.463669773140666</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.8141728720375194</v>
+        <v>-0.8228506016609732</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.8097789683355786</v>
+        <v>-0.8657304232315094</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.610838964014655</v>
+        <v>-1.599364937019031</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2206,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.847425528062778</v>
+        <v>1.72871584315471</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.652728344677416</v>
+        <v>1.63254733071414</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.5999260966412552</v>
+        <v>0.7230756281506626</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.1046077694221881</v>
+        <v>0.1125649085406606</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.0172860051284443</v>
+        <v>0.07021086518691595</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.7772687805106715</v>
+        <v>-0.76983941330634</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.557557879535213</v>
+        <v>0.5674787621967203</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.5445784687526952</v>
+        <v>0.5389732046468368</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.2884618323236593</v>
+        <v>-0.343579818856088</v>
       </c>
     </row>
     <row r="49">
@@ -2245,7 +2247,7 @@
         <v>0.1535136313363598</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.08224251915356266</v>
+        <v>-0.08224251915356248</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.2042807411978372</v>
@@ -2274,31 +2276,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0906496597621952</v>
+        <v>-0.08857349001375356</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1119692744646573</v>
+        <v>-0.1004234903847158</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.293972315901632</v>
+        <v>-0.2829779418384066</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3720454984471434</v>
+        <v>-0.3992866085629174</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3879900892111289</v>
+        <v>-0.3788869995705454</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4832731651902826</v>
+        <v>-0.4985126819489309</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1836467293257925</v>
+        <v>-0.185390359741546</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1858825006216793</v>
+        <v>-0.1958678370243921</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3547931052734848</v>
+        <v>-0.3532123031174162</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2311,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5230184025914967</v>
+        <v>0.4973084038619102</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4808647695726156</v>
+        <v>0.4773964138417788</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1746615683702405</v>
+        <v>0.2169371702629187</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.029766217841596</v>
+        <v>0.0277474065226609</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.005447507127415774</v>
+        <v>0.02229863023763671</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2013133956594963</v>
+        <v>-0.195675084960758</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.145753346076748</v>
+        <v>0.1515995440936997</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.138279078473117</v>
+        <v>0.1386981511345478</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.07164577349277754</v>
+        <v>-0.0881009845347471</v>
       </c>
     </row>
     <row r="52">
